--- a/biology/Zoologie/Anabate_aux_yeux_blancs/Anabate_aux_yeux_blancs.xlsx
+++ b/biology/Zoologie/Anabate_aux_yeux_blancs/Anabate_aux_yeux_blancs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Automolus leucophthalmus
 L'Anabate aux yeux blancs (Automolus leucophthalmus) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts secondaires du sud-est du Brésil, de l'est du Paraguay et du nord-est de l'Argentine.
 </t>
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce comporte deux sous-espèces[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce comporte deux sous-espèces:
 A. leucophthalmus leucophthalmus (Wied-Neuwied, 1821) vivant dans l'est du Brésil ;
 A. leucophthalmus sulphurascens (Lichtenstein, 1823) vivant au Brésil, au Paraguay et en Argentine.</t>
         </is>
